--- a/Graphs/Embedding dimension_Val acc.xlsx
+++ b/Graphs/Embedding dimension_Val acc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CE60968-C667-4011-BCD4-BCAC63C16A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E63847-27FF-4059-86BC-E87F58ABBBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{239297EA-2B6A-4729-BF75-E20E5C1B2308}"/>
   </bookViews>
@@ -106,6 +106,1094 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Validation accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:marker>
+              <c:symbol val="diamond"/>
+              <c:size val="10"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-E5D9-442C-9C3C-A1E6FDF965BA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.78820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87060000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94220000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94330000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9466</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94589999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94620000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E5D9-442C-9C3C-A1E6FDF965BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1807645775"/>
+        <c:axId val="1365874271"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1807645775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Embedding dimension</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1365874271"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1365874271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Validation accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1807645775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2AB62F6-7D7E-7C3F-4ED1-D0B81973F6F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF6C390-C6C7-4B02-AEAF-ACDDE1BA7423}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="128" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -496,5 +1584,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Graphs/Embedding dimension_Val acc.xlsx
+++ b/Graphs/Embedding dimension_Val acc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BaiduSyncdisk\3课外活动\科研实践 盲汉翻译\Chinese-Braille-to-Chinese-Characters\Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E63847-27FF-4059-86BC-E87F58ABBBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98ED365-F9B9-42C7-BC8C-D5276C80D9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{239297EA-2B6A-4729-BF75-E20E5C1B2308}"/>
   </bookViews>
@@ -34,13 +34,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="5">
   <si>
     <t>Embedding dimension</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Validation accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc_val</t>
+  </si>
+  <si>
+    <t>Mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -87,10 +98,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -132,15 +144,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Validation accuracy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Validation Accuracy</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -248,12 +252,106 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$I$2:$I$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.8729083838921468E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.8647746332047748E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.081965937544958E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.8727424966298474E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.6875913411754865E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.8461151153468784E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.3330977252484556E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.8955633689127867E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.0896414888647437E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.1543238678343689E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$I$2:$I$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.8729083838921468E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.8647746332047748E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.081965937544958E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.8727424966298474E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.6875913411754865E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.8461151153468784E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.3330977252484556E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.8955633689127867E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.0896414888647437E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.1543238678343689E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="47625" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -280,6 +378,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -341,6 +442,567 @@
         <c:axId val="1807645775"/>
         <c:axId val="1365874271"/>
       </c:lineChart>
+      <c:catAx>
+        <c:axId val="1807645775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Embedding dimension</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1365874271"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1365874271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Validation accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1807645775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Validation Accuracy</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-C3F2-4E0B-91F3-82FDD81E5C7C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$I$2:$I$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.8729083838921468E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.8647746332047748E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.081965937544958E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.8727424966298474E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.6875913411754865E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.8461151153468784E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.3330977252484556E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.8955633689127867E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.0896414888647437E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.1543238678343689E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$I$2:$I$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.8729083838921468E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.8647746332047748E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.081965937544958E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9.8727424966298474E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.6875913411754865E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.8461151153468784E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.3330977252484556E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.8955633689127867E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.0896414888647437E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.1543238678343689E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.78820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87060000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94220000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94330000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9466</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94589999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94620000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C3F2-4E0B-91F3-82FDD81E5C7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1807645775"/>
+        <c:axId val="1365874271"/>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1807645775"/>
         <c:scaling>
@@ -652,6 +1314,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1155,20 +1857,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>582856</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>93718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>275675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1188,6 +2393,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>298174</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>145775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>580715</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85176</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D41BC0-C509-457B-BC47-F7B63A7E757A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1493,92 +2736,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF6C390-C6C7-4B02-AEAF-ACDDE1BA7423}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="128" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
       <c r="B2">
         <v>0.78820000000000001</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.80686031694099314</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.80901955188358576</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.80443446518377582</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(E2:G2)</f>
+        <v>0.8067714446694515</v>
+      </c>
+      <c r="I2">
+        <f>_xlfn.STDEV.P(E2:G2)</f>
+        <v>1.8729083838921468E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>30</v>
       </c>
       <c r="B3">
         <v>0.87060000000000004</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.88511958270938496</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.885154614050354</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.88659302093559611</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="0">AVERAGE(E3:G3)</f>
+        <v>0.88562240589844488</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I11" si="1">_xlfn.STDEV.P(E3:G3)</f>
+        <v>6.8647746332047748E-4</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50</v>
       </c>
       <c r="B4">
         <v>0.92759999999999998</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.93214535508854623</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.93133466068570425</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.92955482889126828</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.93101161488850614</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>1.081965937544958E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>70</v>
       </c>
       <c r="B5">
         <v>0.94220000000000004</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.94436802876866577</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.94394952102640117</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.94622150014595185</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.94484634998033956</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>9.8727424966298474E-4</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>90</v>
       </c>
       <c r="B6">
         <v>0.94450000000000001</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.94365795644965555</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.94664320603920982</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.94762687970639092</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.94597601406508547</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>1.6875913411754865E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>110</v>
       </c>
       <c r="B7">
         <v>0.94330000000000003</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.94604332864051255</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.94691645240436317</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.94717635200504346</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.94671204434997314</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>4.8461151153468784E-4</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>130</v>
       </c>
       <c r="B8">
         <v>0.9466</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.94667910771935493</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.94927111017896171</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.94969508435300165</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.94854843408377276</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>1.3330977252484556E-3</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>150</v>
       </c>
       <c r="B9">
         <v>0.94589999999999996</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.94510927529865529</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.94850008266918207</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.94955168484795027</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.94772034760526258</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>1.8955633689127867E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>170</v>
       </c>
       <c r="B10">
         <v>0.94620000000000004</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.94721909580866959</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.94976445981572044</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.94779623835403559</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.94825993132614184</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>1.0896414888647437E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>190</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.94693245703417983</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.94945527503901905</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.94708814086768145</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.94782529098029344</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>1.1543238678343689E-3</v>
       </c>
     </row>
   </sheetData>
